--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\22Feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6EDA0B4-A07F-40CF-A085-7DBFE88DE605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5531962A-5016-4388-8DB5-2A59AFC6A842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -1692,7 +1692,7 @@
     <t>REMOVAL_ID</t>
   </si>
   <si>
-    <t>Removal_ID</t>
+    <t>Removal_ID1</t>
   </si>
 </sst>
 </file>
@@ -2213,8 +2213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A20B18-3EB2-4CE9-A424-3ADA004F57B4}">
   <dimension ref="A1:V11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4329,8 +4329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3274BF-B9FF-4EE0-9505-51C855EF2AA8}">
   <dimension ref="A1:AU17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -11344,15 +11344,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
@@ -11360,6 +11351,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11580,19 +11580,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42EB703D-1CA6-4EA9-A98C-69841A484145}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{436040E2-87BE-4168-A5A4-24E613AF937A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{436040E2-87BE-4168-A5A4-24E613AF937A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42EB703D-1CA6-4EA9-A98C-69841A484145}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\22Feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5531962A-5016-4388-8DB5-2A59AFC6A842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64535D06-400E-4436-A6E4-322B386E0A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="29" activeTab="32" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2375" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2382" uniqueCount="541">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -2213,8 +2213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A20B18-3EB2-4CE9-A424-3ADA004F57B4}">
   <dimension ref="A1:V11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -9046,13 +9046,24 @@
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6210045-CE4A-4214-AAD3-074D92F518C1}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.36328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
@@ -9109,6 +9120,35 @@
         <v>24</v>
       </c>
       <c r="I2" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>22</v>
       </c>
     </row>
